--- a/planning/Moves.xlsx
+++ b/planning/Moves.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="182">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Gen</t>
-  </si>
-  <si>
     <t>Pound</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Physical</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Karate Chop*</t>
   </si>
   <si>
@@ -563,6 +557,9 @@
   </si>
   <si>
     <t>1*</t>
+  </si>
+  <si>
+    <t>Secondary Effect Num</t>
   </si>
 </sst>
 </file>
@@ -907,7 +904,7 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,19 +923,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,25 +943,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>35</v>
       </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,25 +969,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,25 +995,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.85</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0.85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,25 +1021,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0.85</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>0.85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,25 +1047,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
       </c>
       <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
-      <c r="G6">
-        <v>0.85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,25 +1073,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,25 +1099,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,25 +1125,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="F9">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,25 +1151,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="F10">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,25 +1177,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,25 +1203,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>30</v>
       </c>
-      <c r="F12">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,25 +1229,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
       <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,25 +1255,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
       <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,25 +1281,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
       </c>
       <c r="E15">
+        <v>0.95</v>
+      </c>
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>0.95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,25 +1307,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,25 +1333,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,25 +1359,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E18">
+        <v>0.95</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>0.95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,25 +1385,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
       </c>
       <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
-        <v>80</v>
-      </c>
-      <c r="G19">
-        <v>0.75</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,25 +1411,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,25 +1437,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>65</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,25 +1463,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,25 +1489,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
       </c>
       <c r="E23">
+        <v>0.75</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="F23">
-        <v>120</v>
-      </c>
-      <c r="G23">
-        <v>0.75</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,25 +1515,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
+      <c r="E24">
+        <v>0.95</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24">
-        <v>0.95</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,25 +1541,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
       </c>
       <c r="E25">
+        <v>0.85</v>
+      </c>
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="F25">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>0.85</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,25 +1567,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>15</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,25 +1593,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="F27">
-        <v>70</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,25 +1619,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>25</v>
       </c>
-      <c r="F28">
-        <v>65</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,25 +1645,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
       </c>
       <c r="E29">
+        <v>0.85</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
-      <c r="F29">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>0.85</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,25 +1671,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
       <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,25 +1697,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>15</v>
       </c>
-      <c r="F31">
-        <v>85</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1726,25 +1723,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
       </c>
       <c r="E32">
+        <v>0.85</v>
+      </c>
+      <c r="F32">
         <v>20</v>
       </c>
-      <c r="F32">
-        <v>90</v>
-      </c>
-      <c r="G32">
-        <v>0.85</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,25 +1749,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1778,25 +1775,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,25 +1801,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,25 +1827,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,25 +1853,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>20</v>
       </c>
-      <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
         <v>70</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
+      <c r="F38">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,25 +1905,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,25 +1931,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
       </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>25</v>
       </c>
-      <c r="F40">
-        <v>60</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,25 +1983,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F42">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,25 +2009,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>30</v>
       </c>
-      <c r="F43">
-        <v>40</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,25 +2035,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>25</v>
       </c>
-      <c r="F44">
-        <v>40</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2064,25 +2061,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,25 +2087,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>25</v>
       </c>
-      <c r="F46">
-        <v>40</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,25 +2113,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
         <v>82</v>
       </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
       <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47">
-        <v>0.8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,25 +2139,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>15</v>
       </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,25 +2165,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>10</v>
       </c>
-      <c r="F49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,25 +2191,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50">
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>84</v>
-      </c>
       <c r="G50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,25 +2217,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
       </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>20</v>
       </c>
-      <c r="F51">
-        <v>65</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,25 +2243,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="D52">
+        <v>65</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>20</v>
       </c>
-      <c r="F52">
-        <v>65</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,25 +2269,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
       </c>
       <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>20</v>
       </c>
-      <c r="F53">
-        <v>65</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2298,25 +2295,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>150</v>
       </c>
       <c r="E54">
+        <v>0.9</v>
+      </c>
+      <c r="F54">
         <v>5</v>
       </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>0.9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2324,25 +2321,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55">
         <v>35</v>
       </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
       <c r="E55">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>35</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2350,25 +2347,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>80</v>
       </c>
       <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>20</v>
       </c>
-      <c r="F56">
-        <v>80</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,25 +2373,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="D57">
         <v>80</v>
       </c>
-      <c r="G57">
+      <c r="E57">
         <v>0.8</v>
       </c>
-      <c r="H57" t="s">
-        <v>11</v>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,25 +2399,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>80</v>
       </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>15</v>
       </c>
-      <c r="F58">
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2428,25 +2425,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,25 +2451,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2480,25 +2477,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,25 +2503,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D62">
+        <v>55</v>
       </c>
       <c r="E62">
+        <v>0.95</v>
+      </c>
+      <c r="F62">
         <v>25</v>
       </c>
-      <c r="F62">
-        <v>55</v>
-      </c>
-      <c r="G62">
-        <v>0.95</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2532,25 +2529,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>10</v>
       </c>
-      <c r="F63" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,25 +2555,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E64">
+        <v>0.75</v>
+      </c>
+      <c r="F64">
         <v>35</v>
       </c>
-      <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64">
-        <v>0.75</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2584,25 +2581,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E65">
+        <v>0.75</v>
+      </c>
+      <c r="F65">
         <v>30</v>
       </c>
-      <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65">
-        <v>0.75</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2610,25 +2607,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E66">
+        <v>0.75</v>
+      </c>
+      <c r="F66">
         <v>15</v>
       </c>
-      <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66">
-        <v>0.75</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2636,25 +2633,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E67">
+        <v>0.95</v>
+      </c>
+      <c r="F67">
         <v>40</v>
       </c>
-      <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67">
-        <v>0.95</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2662,25 +2659,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
       </c>
       <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>30</v>
       </c>
-      <c r="F68">
-        <v>40</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2688,25 +2685,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>15</v>
       </c>
-      <c r="F69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>11</v>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2714,25 +2711,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70">
         <v>20</v>
       </c>
-      <c r="F70" t="s">
-        <v>26</v>
-      </c>
       <c r="G70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,25 +2737,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E71">
+        <v>0.7</v>
+      </c>
+      <c r="F71">
         <v>10</v>
       </c>
-      <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71">
-        <v>0.7</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,25 +2763,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72">
+        <v>113</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72">
         <v>15</v>
       </c>
-      <c r="F72">
-        <v>50</v>
-      </c>
       <c r="G72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,25 +2789,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>10</v>
       </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>100</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,25 +2815,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>10</v>
       </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2844,25 +2841,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75">
         <v>10</v>
       </c>
-      <c r="F75" t="s">
-        <v>26</v>
-      </c>
       <c r="G75" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2870,25 +2867,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" t="s">
-        <v>28</v>
+        <v>88</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
       </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>25</v>
       </c>
-      <c r="F76">
-        <v>50</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2896,25 +2893,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77">
         <v>90</v>
       </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" t="s">
-        <v>28</v>
-      </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>10</v>
       </c>
-      <c r="F77">
-        <v>90</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,25 +2919,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78">
         <v>20</v>
       </c>
-      <c r="F78" t="s">
-        <v>26</v>
-      </c>
       <c r="G78" t="s">
-        <v>122</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,25 +2945,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79">
         <v>40</v>
       </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
       <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2974,25 +2971,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
-      </c>
-      <c r="E80">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80">
         <v>30</v>
       </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
       <c r="G80" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3000,25 +2997,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
       </c>
       <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>30</v>
       </c>
-      <c r="F81">
-        <v>40</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>11</v>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3026,25 +3023,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3052,25 +3049,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E83">
+        <v>0.85</v>
+      </c>
+      <c r="F83">
         <v>40</v>
       </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83">
-        <v>0.85</v>
-      </c>
-      <c r="H83" t="s">
-        <v>11</v>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3078,25 +3075,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84">
         <v>15</v>
       </c>
-      <c r="F84" t="s">
-        <v>26</v>
-      </c>
       <c r="G84" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,25 +3101,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,25 +3127,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86">
         <v>30</v>
       </c>
-      <c r="F86" t="s">
-        <v>26</v>
-      </c>
       <c r="G86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,25 +3153,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,25 +3179,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
         <v>20</v>
       </c>
-      <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>11</v>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,25 +3205,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E89">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89">
         <v>40</v>
       </c>
-      <c r="F89" t="s">
-        <v>26</v>
-      </c>
       <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,25 +3231,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90">
         <v>40</v>
       </c>
-      <c r="F90" t="s">
-        <v>26</v>
-      </c>
       <c r="G90" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3260,25 +3257,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,25 +3283,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92">
         <v>30</v>
       </c>
-      <c r="F92" t="s">
-        <v>26</v>
-      </c>
       <c r="G92" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3312,25 +3309,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93">
         <v>30</v>
       </c>
-      <c r="F93" t="s">
-        <v>26</v>
-      </c>
       <c r="G93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,25 +3335,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
         <v>5</v>
       </c>
-      <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>11</v>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3364,25 +3361,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+      <c r="E95">
+        <v>0.75</v>
+      </c>
+      <c r="F95">
         <v>10</v>
       </c>
-      <c r="E95">
-        <v>10</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
-      </c>
-      <c r="G95">
-        <v>0.75</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3390,25 +3387,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>30</v>
       </c>
-      <c r="F96" t="s">
-        <v>142</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>11</v>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,25 +3413,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="E97">
+        <v>0.7</v>
+      </c>
+      <c r="F97">
         <v>20</v>
       </c>
-      <c r="F97" t="s">
-        <v>142</v>
-      </c>
-      <c r="G97">
-        <v>0.7</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
+      <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3442,25 +3439,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <v>65</v>
       </c>
       <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>20</v>
       </c>
-      <c r="F98">
-        <v>65</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3468,25 +3465,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="D99">
+        <v>65</v>
       </c>
       <c r="E99">
+        <v>0.85</v>
+      </c>
+      <c r="F99">
         <v>20</v>
       </c>
-      <c r="F99">
-        <v>65</v>
-      </c>
-      <c r="G99">
-        <v>0.85</v>
-      </c>
-      <c r="H99" t="s">
-        <v>11</v>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3494,25 +3491,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E100">
+        <v>0.85</v>
+      </c>
+      <c r="F100">
         <v>5</v>
       </c>
-      <c r="F100" t="s">
-        <v>84</v>
-      </c>
-      <c r="G100">
-        <v>0.85</v>
-      </c>
-      <c r="H100" t="s">
-        <v>11</v>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3520,25 +3517,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="D101">
+        <v>80</v>
       </c>
       <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
         <v>15</v>
       </c>
-      <c r="F101">
-        <v>80</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3546,25 +3543,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>60</v>
+      </c>
+      <c r="E102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102">
         <v>20</v>
-      </c>
-      <c r="F102">
-        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>26</v>
       </c>
-      <c r="H102" t="s">
-        <v>11</v>
+      <c r="H102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,25 +3569,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>50</v>
+        <v>148</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,25 +3595,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
       </c>
       <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
         <v>15</v>
       </c>
-      <c r="F104">
-        <v>20</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>11</v>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3624,25 +3621,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
         <v>10</v>
       </c>
       <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
         <v>35</v>
       </c>
-      <c r="F105">
-        <v>10</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>11</v>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3650,25 +3647,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106">
         <v>20</v>
       </c>
-      <c r="F106" t="s">
-        <v>26</v>
-      </c>
       <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3676,25 +3673,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E107">
+        <v>0.8</v>
+      </c>
+      <c r="F107">
         <v>15</v>
       </c>
-      <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107">
-        <v>0.8</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3702,25 +3699,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108">
         <v>10</v>
       </c>
-      <c r="F108" t="s">
-        <v>26</v>
-      </c>
       <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3728,25 +3725,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>50</v>
+        <v>148</v>
+      </c>
+      <c r="E109">
+        <v>0.9</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109">
-        <v>0.9</v>
-      </c>
-      <c r="H109" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3754,25 +3751,25 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
-      </c>
-      <c r="E110">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110">
         <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>26</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
       </c>
-      <c r="H110" t="s">
-        <v>11</v>
+      <c r="H110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3780,25 +3777,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111">
         <v>40</v>
       </c>
-      <c r="F111" t="s">
-        <v>26</v>
-      </c>
       <c r="G111" t="s">
-        <v>61</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,25 +3803,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
       </c>
       <c r="E112">
+        <v>0.85</v>
+      </c>
+      <c r="F112">
         <v>20</v>
       </c>
-      <c r="F112">
-        <v>15</v>
-      </c>
-      <c r="G112">
-        <v>0.85</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,25 +3829,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>50</v>
+        <v>116</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,25 +3855,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E114">
+        <v>0.75</v>
+      </c>
+      <c r="F114">
         <v>10</v>
       </c>
-      <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114">
-        <v>0.75</v>
-      </c>
-      <c r="H114" t="s">
-        <v>11</v>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3884,25 +3881,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E115">
+        <v>0.9</v>
+      </c>
+      <c r="F115">
         <v>5</v>
       </c>
-      <c r="F115" t="s">
-        <v>105</v>
-      </c>
-      <c r="G115">
-        <v>0.9</v>
-      </c>
-      <c r="H115" t="s">
-        <v>11</v>
+      <c r="G115" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,25 +3907,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
         <v>30</v>
       </c>
-      <c r="F116" t="s">
-        <v>59</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>11</v>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,25 +3933,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>70</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
         <v>10</v>
       </c>
-      <c r="E117">
-        <v>10</v>
-      </c>
-      <c r="F117">
-        <v>70</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>11</v>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3962,25 +3959,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
         <v>15</v>
       </c>
-      <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>11</v>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,25 +3985,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
-      </c>
-      <c r="E119">
+        <v>24</v>
+      </c>
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119">
         <v>20</v>
-      </c>
-      <c r="F119" t="s">
-        <v>26</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
       </c>
-      <c r="H119" t="s">
-        <v>11</v>
+      <c r="H119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,25 +4011,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
-      </c>
-      <c r="E120">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120">
         <v>15</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>26</v>
       </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
+      <c r="H120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,25 +4037,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
-      </c>
-      <c r="E121">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121">
         <v>40</v>
       </c>
-      <c r="F121" t="s">
-        <v>26</v>
-      </c>
       <c r="G121" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,25 +4063,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,25 +4089,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D123" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123">
         <v>10</v>
       </c>
-      <c r="E123">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>51</v>
-      </c>
       <c r="G123" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,25 +4115,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
         <v>5</v>
       </c>
-      <c r="F124" t="s">
-        <v>172</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>11</v>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,25 +4141,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>18</v>
       </c>
       <c r="E125">
+        <v>0.8</v>
+      </c>
+      <c r="F125">
         <v>15</v>
       </c>
-      <c r="F125">
-        <v>18</v>
-      </c>
-      <c r="G125">
-        <v>0.8</v>
-      </c>
-      <c r="H125" t="s">
-        <v>11</v>
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4170,25 +4167,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
+      </c>
+      <c r="E126">
+        <v>0.9</v>
+      </c>
+      <c r="F126">
         <v>10</v>
       </c>
-      <c r="E126">
-        <v>10</v>
-      </c>
-      <c r="F126">
-        <v>50</v>
-      </c>
-      <c r="G126">
-        <v>0.9</v>
-      </c>
-      <c r="H126" t="s">
-        <v>11</v>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4196,25 +4193,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
-      </c>
-      <c r="E127">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127">
         <v>10</v>
       </c>
-      <c r="F127" t="s">
-        <v>26</v>
-      </c>
       <c r="G127" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,25 +4219,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
-      </c>
-      <c r="D128" t="s">
+        <v>113</v>
+      </c>
+      <c r="D128">
+        <v>75</v>
+      </c>
+      <c r="E128">
+        <v>0.9</v>
+      </c>
+      <c r="F128">
         <v>10</v>
       </c>
-      <c r="E128">
-        <v>10</v>
-      </c>
-      <c r="F128">
-        <v>75</v>
-      </c>
-      <c r="G128">
-        <v>0.9</v>
-      </c>
-      <c r="H128" t="s">
-        <v>11</v>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,25 +4245,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>80</v>
       </c>
       <c r="E129">
+        <v>0.9</v>
+      </c>
+      <c r="F129">
         <v>15</v>
       </c>
-      <c r="F129">
-        <v>80</v>
-      </c>
-      <c r="G129">
-        <v>0.9</v>
-      </c>
-      <c r="H129" t="s">
-        <v>11</v>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4274,25 +4271,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130">
+        <v>24</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130">
         <v>30</v>
       </c>
-      <c r="F130" t="s">
-        <v>26</v>
-      </c>
       <c r="G130" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,25 +4297,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>80</v>
       </c>
       <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
         <v>10</v>
       </c>
-      <c r="F131">
-        <v>80</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>11</v>
+      <c r="G131" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,25 +4323,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>70</v>
       </c>
       <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
         <v>20</v>
       </c>
-      <c r="F132">
-        <v>70</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
-        <v>11</v>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4352,25 +4349,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>50</v>
       </c>
       <c r="E133" t="s">
-        <v>182</v>
-      </c>
-      <c r="F133">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="F133" t="s">
+        <v>180</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
-      </c>
-      <c r="H133" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
